--- a/data/TTP-Merged-Data.xlsx
+++ b/data/TTP-Merged-Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GENE\nfshome\jpjones\projects\research\pediatric-ttp-2020\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy001i\Box\Infant Fever - Time to Positivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Record ID</t>
   </si>
@@ -59,10 +59,28 @@
     <t>True Bacteremia</t>
   </si>
   <si>
+    <t>Excluded because of missing data</t>
+  </si>
+  <si>
     <t>White Blood Cell Count</t>
   </si>
   <si>
+    <t>Removed 1117 - entered in error</t>
+  </si>
+  <si>
     <t>Total Bands</t>
+  </si>
+  <si>
+    <t>Removed 1297 - entered in error</t>
+  </si>
+  <si>
+    <t>Likely either no fever, or was transferred in</t>
+  </si>
+  <si>
+    <t>missing WBC so this infant was removed</t>
+  </si>
+  <si>
+    <t>Removed 1339 - entered in error</t>
   </si>
 </sst>
 </file>
@@ -397,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +429,7 @@
     <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -452,7 +470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>83</v>
       </c>
@@ -493,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>181</v>
       </c>
@@ -534,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>182</v>
       </c>
@@ -575,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>184</v>
       </c>
@@ -615,8 +633,12 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>AVERAGE(L30:L87)</f>
+        <v>31.327586206896548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>188</v>
       </c>
@@ -657,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>190</v>
       </c>
@@ -698,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>195</v>
       </c>
@@ -738,8 +760,12 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f>STDEV(L30:L87)</f>
+        <v>24.928429434510814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -780,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>329</v>
       </c>
@@ -821,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>746</v>
       </c>
@@ -862,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>753</v>
       </c>
@@ -903,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>774</v>
       </c>
@@ -944,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>815</v>
       </c>
@@ -985,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>824</v>
       </c>
@@ -1026,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>864</v>
       </c>
@@ -1067,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1195</v>
       </c>
@@ -1108,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1200</v>
       </c>
@@ -1149,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1253</v>
       </c>
@@ -1190,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1274</v>
       </c>
@@ -1231,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1287</v>
       </c>
@@ -1272,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1292</v>
       </c>
@@ -1313,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1295</v>
       </c>
@@ -1354,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1323</v>
       </c>
@@ -1395,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1325</v>
       </c>
@@ -1435,8 +1461,12 @@
       <c r="M25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f>STDEV(L31:L87)</f>
+        <v>25.118570824205481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1328</v>
       </c>
@@ -1477,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1330</v>
       </c>
@@ -1518,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1331</v>
       </c>
@@ -1559,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1337</v>
       </c>
@@ -1600,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>60</v>
       </c>
@@ -1641,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>66</v>
       </c>
@@ -1682,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>130</v>
       </c>
@@ -1723,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>146</v>
       </c>
@@ -1764,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>162</v>
       </c>
@@ -1805,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>167</v>
       </c>
@@ -1846,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>175</v>
       </c>
@@ -1887,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>198</v>
       </c>
@@ -1928,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>206</v>
       </c>
@@ -1969,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>207</v>
       </c>
@@ -2010,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>234</v>
       </c>
@@ -2051,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>426</v>
       </c>
@@ -2092,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>677</v>
       </c>
@@ -2133,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>686</v>
       </c>
@@ -2173,8 +2203,11 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>688</v>
       </c>
@@ -2215,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>694</v>
       </c>
@@ -2256,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>715</v>
       </c>
@@ -2296,8 +2329,11 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>721</v>
       </c>
@@ -2338,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>732</v>
       </c>
@@ -2378,8 +2414,11 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>749</v>
       </c>
@@ -2419,8 +2458,11 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>757</v>
       </c>
@@ -2460,8 +2502,11 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>764</v>
       </c>
@@ -2502,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>840</v>
       </c>
@@ -2543,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>842</v>
       </c>
@@ -2583,8 +2628,14 @@
       <c r="M53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>648</v>
+      </c>
+      <c r="R53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>857</v>
       </c>
@@ -2625,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>883</v>
       </c>
@@ -2666,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>888</v>
       </c>
@@ -2707,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>914</v>
       </c>
@@ -2748,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>918</v>
       </c>
@@ -2789,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1098</v>
       </c>
@@ -2830,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1113</v>
       </c>
@@ -2871,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1119</v>
       </c>
@@ -2912,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1125</v>
       </c>
@@ -2953,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1191</v>
       </c>
@@ -2994,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1218</v>
       </c>
@@ -3978,110 +4029,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>1291</v>
       </c>
-      <c r="B88" s="3">
-        <v>0</v>
-      </c>
-      <c r="C88" s="3">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
         <v>47</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D94" s="3">
         <v>38</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>38.1</v>
       </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="3">
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3">
         <v>2</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3">
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3">
+        <v>1</v>
+      </c>
+      <c r="L94" s="3">
         <v>11</v>
       </c>
-      <c r="M88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="M94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>705</v>
       </c>
-      <c r="B89" s="3">
-        <v>0</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
         <v>46</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G95" s="3">
         <v>14</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3">
+        <v>1</v>
+      </c>
+      <c r="L95" s="3">
         <v>15</v>
       </c>
-      <c r="M89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="M95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>685</v>
       </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
         <v>38</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D96" s="3">
         <v>37.5</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3">
+      <c r="E96" s="3"/>
+      <c r="F96" s="3">
         <v>38.1</v>
       </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3">
-        <v>0</v>
-      </c>
-      <c r="L90" s="3">
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>25</v>
       </c>
-      <c r="M90" s="3">
+      <c r="M96" s="3">
         <v>0</v>
       </c>
     </row>
